--- a/Integrated Project/Gauteng MMS/web/Reports/Weekly/Unidentified Bodies/2013-Week-24 Report - Unidentified Bodies.xlsx
+++ b/Integrated Project/Gauteng MMS/web/Reports/Weekly/Unidentified Bodies/2013-Week-24 Report - Unidentified Bodies.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Forensic Pathology Service</t>
   </si>
@@ -42,21 +42,6 @@
   </si>
   <si>
     <t>Duration at Facility (Days)</t>
-  </si>
-  <si>
-    <t>002201301</t>
-  </si>
-  <si>
-    <t>099888592</t>
-  </si>
-  <si>
-    <t>2013-06-03</t>
-  </si>
-  <si>
-    <t>unknown</t>
-  </si>
-  <si>
-    <t>0</t>
   </si>
 </sst>
 </file>
@@ -337,7 +322,7 @@
       <c r="K6"/>
       <c r="L6"/>
       <c r="M6" t="n" s="1">
-        <v>41435.46190879629</v>
+        <v>41439.32492519676</v>
       </c>
       <c r="N6"/>
       <c r="O6"/>
@@ -452,37 +437,21 @@
       <c r="P11" s="6"/>
     </row>
     <row r="12" ht="30.0" customHeight="true">
-      <c r="A12" s="5" t="s">
-        <v>10</v>
-      </c>
+      <c r="A12" s="5"/>
       <c r="B12" s="5"/>
-      <c r="C12" s="5" t="s">
-        <v>11</v>
-      </c>
+      <c r="C12" s="5"/>
       <c r="D12" s="5"/>
-      <c r="E12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="E12" s="5"/>
       <c r="F12" s="5"/>
-      <c r="G12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="G12" s="5"/>
       <c r="H12" s="5"/>
-      <c r="I12" s="5" t="s">
-        <v>12</v>
-      </c>
+      <c r="I12" s="5"/>
       <c r="J12" s="5"/>
-      <c r="K12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="K12" s="5"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="5" t="s">
-        <v>13</v>
-      </c>
+      <c r="M12" s="5"/>
       <c r="N12" s="5"/>
-      <c r="O12" s="5" t="s">
-        <v>14</v>
-      </c>
+      <c r="O12" s="5"/>
       <c r="P12" s="5"/>
     </row>
     <row r="13" ht="30.0" customHeight="true">
